--- a/public/templates/GHAS_-_Arquivo_Modelo_de_Importacao_Produtividade_Global.xlsx
+++ b/public/templates/GHAS_-_Arquivo_Modelo_de_Importacao_Produtividade_Global.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavocamillozzi/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavocamillozzi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58927C6D-0893-714F-9B6E-28732EC1F49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FB7D7F-D3DB-E24A-A439-C30512C3E19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="11440" windowWidth="28800" windowHeight="15800" xr2:uid="{3EEDA8B2-7847-2E46-B907-F3D34A1D6E3A}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16100" xr2:uid="{3EEDA8B2-7847-2E46-B907-F3D34A1D6E3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Código do Prestador</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Código do Cliente</t>
   </si>
@@ -417,27 +414,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0322D818-4AEF-9243-B258-13BA606891B3}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="10" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,13 +444,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -465,45 +461,42 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
